--- a/wwwroot/files/elements1988.xlsx
+++ b/wwwroot/files/elements1988.xlsx
@@ -3667,15 +3667,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="48.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.6484375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3724,16 +3724,16 @@
         <v>100000</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>30852</v>
       </c>
       <c r="G2" s="5">
         <v>20911</v>
       </c>
       <c r="H2" s="6">
-        <v>497.57613168724276</v>
+        <v>624.5390946502058</v>
       </c>
       <c r="I2" s="7">
-        <v>120911</v>
+        <v>151763</v>
       </c>
     </row>
     <row r="3">
@@ -3753,16 +3753,16 @@
         <v>100000</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>24488</v>
       </c>
       <c r="G3" s="11">
         <v>13541</v>
       </c>
       <c r="H3" s="12">
-        <v>2365.4375</v>
+        <v>2875.6041666666665</v>
       </c>
       <c r="I3" s="13">
-        <v>113541</v>
+        <v>138029.00000000003</v>
       </c>
     </row>
     <row r="4">
@@ -3782,16 +3782,16 @@
         <v>100000</v>
       </c>
       <c r="F4" s="16">
-        <v>0</v>
+        <v>24488</v>
       </c>
       <c r="G4" s="17">
         <v>13541</v>
       </c>
       <c r="H4" s="18">
-        <v>2365.4375</v>
+        <v>2875.6041666666665</v>
       </c>
       <c r="I4" s="19">
-        <v>113541</v>
+        <v>138029.00000000003</v>
       </c>
     </row>
     <row r="5">
@@ -3811,16 +3811,16 @@
         <v>100000</v>
       </c>
       <c r="F5" s="22">
-        <v>0</v>
+        <v>24488</v>
       </c>
       <c r="G5" s="23">
         <v>13541</v>
       </c>
       <c r="H5" s="24">
-        <v>2365.4375</v>
+        <v>2875.6041666666665</v>
       </c>
       <c r="I5" s="25">
-        <v>113541</v>
+        <v>138029.00000000003</v>
       </c>
     </row>
     <row r="6">
@@ -3840,16 +3840,16 @@
         <v>100000</v>
       </c>
       <c r="F6" s="28">
-        <v>0</v>
+        <v>142689</v>
       </c>
       <c r="G6" s="29">
         <v>227526</v>
       </c>
       <c r="H6" s="30">
-        <v>5746.070175438596</v>
+        <v>8249.38596491228</v>
       </c>
       <c r="I6" s="31">
-        <v>327526</v>
+        <v>470215</v>
       </c>
     </row>
     <row r="7">
@@ -3869,16 +3869,16 @@
         <v>100000</v>
       </c>
       <c r="F7" s="34">
-        <v>0</v>
+        <v>142596</v>
       </c>
       <c r="G7" s="35">
         <v>224474</v>
       </c>
       <c r="H7" s="36">
-        <v>6122.1509433962265</v>
+        <v>8812.641509433963</v>
       </c>
       <c r="I7" s="37">
-        <v>324474.00000000006</v>
+        <v>467070.00000000006</v>
       </c>
     </row>
     <row r="8">
@@ -3898,16 +3898,16 @@
         <v>100000</v>
       </c>
       <c r="F8" s="40">
-        <v>0</v>
+        <v>142806</v>
       </c>
       <c r="G8" s="41">
         <v>231342</v>
       </c>
       <c r="H8" s="42">
-        <v>5344.225806451613</v>
+        <v>7647.548387096774</v>
       </c>
       <c r="I8" s="43">
-        <v>331342.00000000006</v>
+        <v>474148.00000000006</v>
       </c>
     </row>
     <row r="9">
@@ -3927,16 +3927,16 @@
         <v>100000</v>
       </c>
       <c r="F9" s="46">
-        <v>0</v>
+        <v>142806</v>
       </c>
       <c r="G9" s="47">
         <v>231342</v>
       </c>
       <c r="H9" s="48">
-        <v>5344.225806451613</v>
+        <v>7647.548387096774</v>
       </c>
       <c r="I9" s="49">
-        <v>331342.00000000006</v>
+        <v>474148.00000000006</v>
       </c>
     </row>
     <row r="10">
@@ -3956,16 +3956,16 @@
         <v>100000</v>
       </c>
       <c r="F10" s="52">
-        <v>0</v>
+        <v>142970</v>
       </c>
       <c r="G10" s="53">
         <v>236684</v>
       </c>
       <c r="H10" s="54">
-        <v>4879.478260869565</v>
+        <v>6951.507246376811</v>
       </c>
       <c r="I10" s="55">
-        <v>336684</v>
+        <v>479654.00000000006</v>
       </c>
     </row>
     <row r="11">
@@ -3985,16 +3985,16 @@
         <v>100000</v>
       </c>
       <c r="F11" s="58">
-        <v>0</v>
+        <v>143556</v>
       </c>
       <c r="G11" s="59">
         <v>255762</v>
       </c>
       <c r="H11" s="60">
-        <v>3784.702127659574</v>
+        <v>5311.893617021276</v>
       </c>
       <c r="I11" s="61">
-        <v>355762</v>
+        <v>499318</v>
       </c>
     </row>
     <row r="12">
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="64">
-        <v>0</v>
+        <v>215340</v>
       </c>
       <c r="G12" s="65">
         <v>402555</v>
       </c>
       <c r="H12" s="66">
-        <v>44728.333333333336</v>
+        <v>68655</v>
       </c>
       <c r="I12" s="67">
-        <v>402555</v>
+        <v>617895</v>
       </c>
     </row>
     <row r="13">
@@ -4043,16 +4043,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="70">
-        <v>0</v>
+        <v>142455</v>
       </c>
       <c r="G13" s="71">
         <v>219895</v>
       </c>
       <c r="H13" s="72">
-        <v>4678.617021276596</v>
+        <v>7709.574468085106</v>
       </c>
       <c r="I13" s="73">
-        <v>219895</v>
+        <v>362350.00000000006</v>
       </c>
     </row>
     <row r="14">
@@ -4072,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="76">
-        <v>0</v>
+        <v>143884</v>
       </c>
       <c r="G14" s="77">
         <v>266446</v>
       </c>
       <c r="H14" s="78">
-        <v>2467.0925925925926</v>
+        <v>3799.3518518518517</v>
       </c>
       <c r="I14" s="79">
-        <v>266446</v>
+        <v>410330.00000000006</v>
       </c>
     </row>
     <row r="15">
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="82">
-        <v>0</v>
+        <v>142455</v>
       </c>
       <c r="G15" s="83">
         <v>219895</v>
       </c>
       <c r="H15" s="84">
-        <v>4678.617021276596</v>
+        <v>7709.574468085106</v>
       </c>
       <c r="I15" s="85">
-        <v>219895</v>
+        <v>362350.00000000006</v>
       </c>
     </row>
     <row r="16">
@@ -4130,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="88">
-        <v>0</v>
+        <v>142970</v>
       </c>
       <c r="G16" s="89">
         <v>236684</v>
       </c>
       <c r="H16" s="90">
-        <v>3430.202898550724</v>
+        <v>5502.231884057971</v>
       </c>
       <c r="I16" s="91">
-        <v>236684.00000000003</v>
+        <v>379654</v>
       </c>
     </row>
     <row r="17">
@@ -4159,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="94">
-        <v>0</v>
+        <v>144001</v>
       </c>
       <c r="G17" s="95">
         <v>270262</v>
       </c>
       <c r="H17" s="96">
-        <v>2391.6991150442477</v>
+        <v>3666.0442477876104</v>
       </c>
       <c r="I17" s="97">
-        <v>270262</v>
+        <v>414263</v>
       </c>
     </row>
     <row r="18">
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="100">
-        <v>0</v>
+        <v>218767</v>
       </c>
       <c r="G18" s="101">
         <v>444812</v>
       </c>
       <c r="H18" s="102">
-        <v>11120.3</v>
+        <v>16589.475</v>
       </c>
       <c r="I18" s="103">
-        <v>444812</v>
+        <v>663579</v>
       </c>
     </row>
     <row r="19">
@@ -4217,16 +4217,16 @@
         <v>100000</v>
       </c>
       <c r="F19" s="106">
-        <v>0</v>
+        <v>145242</v>
       </c>
       <c r="G19" s="107">
         <v>310709</v>
       </c>
       <c r="H19" s="108">
-        <v>2474.150602409638</v>
+        <v>3349.102409638554</v>
       </c>
       <c r="I19" s="109">
-        <v>410709.00000000006</v>
+        <v>555951</v>
       </c>
     </row>
     <row r="20">
@@ -4246,16 +4246,16 @@
         <v>2000000</v>
       </c>
       <c r="F20" s="112">
-        <v>0</v>
+        <v>226394</v>
       </c>
       <c r="G20" s="113">
         <v>582248</v>
       </c>
       <c r="H20" s="114">
-        <v>23690.34862385321</v>
+        <v>25767.35779816514</v>
       </c>
       <c r="I20" s="115">
-        <v>2582248</v>
+        <v>2808642</v>
       </c>
     </row>
     <row r="21">
@@ -4275,16 +4275,16 @@
         <v>3000000</v>
       </c>
       <c r="F21" s="118">
-        <v>0</v>
+        <v>226283</v>
       </c>
       <c r="G21" s="119">
         <v>580511</v>
       </c>
       <c r="H21" s="120">
-        <v>33152.879629629635</v>
+        <v>35248.09259259259</v>
       </c>
       <c r="I21" s="121">
-        <v>3580511</v>
+        <v>3806794</v>
       </c>
     </row>
     <row r="22">
@@ -4304,16 +4304,16 @@
         <v>100000</v>
       </c>
       <c r="F22" s="124">
-        <v>0</v>
+        <v>143603</v>
       </c>
       <c r="G22" s="125">
         <v>261076</v>
       </c>
       <c r="H22" s="126">
-        <v>3761.208333333333</v>
+        <v>5257.072916666666</v>
       </c>
       <c r="I22" s="127">
-        <v>361076.00000000006</v>
+        <v>504679.00000000006</v>
       </c>
     </row>
     <row r="23">
@@ -4333,16 +4333,16 @@
         <v>100000</v>
       </c>
       <c r="F23" s="130">
-        <v>0</v>
+        <v>143790</v>
       </c>
       <c r="G23" s="131">
         <v>267273</v>
       </c>
       <c r="H23" s="132">
-        <v>3531.4711538461534</v>
+        <v>4914.067307692308</v>
       </c>
       <c r="I23" s="133">
-        <v>367273.00000000006</v>
+        <v>511063</v>
       </c>
     </row>
     <row r="24">
@@ -4362,16 +4362,16 @@
         <v>100000</v>
       </c>
       <c r="F24" s="136">
-        <v>0</v>
+        <v>165104</v>
       </c>
       <c r="G24" s="137">
         <v>972216</v>
       </c>
       <c r="H24" s="138">
-        <v>1057.4122287968441</v>
+        <v>1220.2366863905324</v>
       </c>
       <c r="I24" s="139">
-        <v>1072216</v>
+        <v>1237320</v>
       </c>
     </row>
     <row r="25">
@@ -4391,16 +4391,16 @@
         <v>100000</v>
       </c>
       <c r="F25" s="142">
-        <v>0</v>
+        <v>150044</v>
       </c>
       <c r="G25" s="143">
         <v>474108</v>
       </c>
       <c r="H25" s="144">
-        <v>1547.4609164420485</v>
+        <v>1951.8921832884096</v>
       </c>
       <c r="I25" s="145">
-        <v>574108.0000000001</v>
+        <v>724152</v>
       </c>
     </row>
     <row r="26">
@@ -4420,16 +4420,16 @@
         <v>100000</v>
       </c>
       <c r="F26" s="148">
-        <v>0</v>
+        <v>154377</v>
       </c>
       <c r="G26" s="149">
         <v>617421</v>
       </c>
       <c r="H26" s="150">
-        <v>1290.3255395683452</v>
+        <v>1567.982014388489</v>
       </c>
       <c r="I26" s="151">
-        <v>717421</v>
+        <v>871798</v>
       </c>
     </row>
     <row r="27">
@@ -4449,16 +4449,16 @@
         <v>100000</v>
       </c>
       <c r="F27" s="154">
-        <v>0</v>
+        <v>146109</v>
       </c>
       <c r="G27" s="155">
         <v>343965</v>
       </c>
       <c r="H27" s="156">
-        <v>2187.0197044334973</v>
+        <v>2906.768472906404</v>
       </c>
       <c r="I27" s="157">
-        <v>443965.00000000006</v>
+        <v>590074.0000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4478,16 +4478,16 @@
         <v>100000</v>
       </c>
       <c r="F28" s="160">
-        <v>0</v>
+        <v>152456</v>
       </c>
       <c r="G28" s="161">
         <v>553898</v>
       </c>
       <c r="H28" s="162">
-        <v>1379.5316455696204</v>
+        <v>1701.1687763713078</v>
       </c>
       <c r="I28" s="163">
-        <v>653898.0000000001</v>
+        <v>806354</v>
       </c>
     </row>
     <row r="29">
@@ -4507,16 +4507,16 @@
         <v>100000</v>
       </c>
       <c r="F29" s="166">
-        <v>0</v>
+        <v>166439</v>
       </c>
       <c r="G29" s="167">
         <v>1016372</v>
       </c>
       <c r="H29" s="168">
-        <v>1042.3641456582634</v>
+        <v>1197.7693744164333</v>
       </c>
       <c r="I29" s="169">
-        <v>1116372</v>
+        <v>1282811</v>
       </c>
     </row>
     <row r="30">
@@ -4536,16 +4536,16 @@
         <v>100000</v>
       </c>
       <c r="F30" s="172">
-        <v>0</v>
+        <v>152854</v>
       </c>
       <c r="G30" s="173">
         <v>567068</v>
       </c>
       <c r="H30" s="174">
-        <v>1358.5906313645621</v>
+        <v>1669.9022403258655</v>
       </c>
       <c r="I30" s="175">
-        <v>667068</v>
+        <v>819922</v>
       </c>
     </row>
     <row r="31">
@@ -4565,16 +4565,16 @@
         <v>100000</v>
       </c>
       <c r="F31" s="178">
-        <v>0</v>
+        <v>184544</v>
       </c>
       <c r="G31" s="179">
         <v>1615187</v>
       </c>
       <c r="H31" s="180">
-        <v>930.1447939262472</v>
+        <v>1030.2228850325378</v>
       </c>
       <c r="I31" s="181">
-        <v>1715187</v>
+        <v>1899731</v>
       </c>
     </row>
     <row r="32">
@@ -4594,16 +4594,16 @@
         <v>100000</v>
       </c>
       <c r="F32" s="184">
-        <v>0</v>
+        <v>247175</v>
       </c>
       <c r="G32" s="185">
         <v>795138</v>
       </c>
       <c r="H32" s="186">
-        <v>3013.9326599326596</v>
+        <v>3846.171717171717</v>
       </c>
       <c r="I32" s="187">
-        <v>895138</v>
+        <v>1142313</v>
       </c>
     </row>
     <row r="33">
@@ -4623,16 +4623,16 @@
         <v>100000</v>
       </c>
       <c r="F33" s="190">
-        <v>0</v>
+        <v>142455</v>
       </c>
       <c r="G33" s="191">
         <v>223117</v>
       </c>
       <c r="H33" s="192">
-        <v>6874.829787234043</v>
+        <v>9905.787234042553</v>
       </c>
       <c r="I33" s="193">
-        <v>323117</v>
+        <v>465572.00000000006</v>
       </c>
     </row>
     <row r="34">
@@ -4652,16 +4652,16 @@
         <v>100000</v>
       </c>
       <c r="F34" s="196">
-        <v>0</v>
+        <v>142549</v>
       </c>
       <c r="G34" s="197">
         <v>226216</v>
       </c>
       <c r="H34" s="198">
-        <v>6396.392156862744</v>
+        <v>9191.470588235294</v>
       </c>
       <c r="I34" s="199">
-        <v>326216.00000000006</v>
+        <v>468765.00000000006</v>
       </c>
     </row>
     <row r="35">
@@ -4681,16 +4681,16 @@
         <v>100000</v>
       </c>
       <c r="F35" s="202">
-        <v>0</v>
+        <v>147748</v>
       </c>
       <c r="G35" s="203">
         <v>398191</v>
       </c>
       <c r="H35" s="204">
-        <v>1824.8754578754576</v>
+        <v>2366.076923076923</v>
       </c>
       <c r="I35" s="205">
-        <v>498191</v>
+        <v>645939.0000000001</v>
       </c>
     </row>
     <row r="36">
@@ -4710,16 +4710,16 @@
         <v>100000</v>
       </c>
       <c r="F36" s="208">
-        <v>0</v>
+        <v>142502</v>
       </c>
       <c r="G36" s="209">
         <v>224667</v>
       </c>
       <c r="H36" s="210">
-        <v>6625.857142857142</v>
+        <v>9534.061224489797</v>
       </c>
       <c r="I36" s="211">
-        <v>324667</v>
+        <v>467169.00000000006</v>
       </c>
     </row>
     <row r="37">
@@ -4739,16 +4739,16 @@
         <v>100000</v>
       </c>
       <c r="F37" s="214">
-        <v>0</v>
+        <v>142502</v>
       </c>
       <c r="G37" s="215">
         <v>224667</v>
       </c>
       <c r="H37" s="216">
-        <v>6625.857142857142</v>
+        <v>9534.061224489797</v>
       </c>
       <c r="I37" s="217">
-        <v>324667</v>
+        <v>467169.00000000006</v>
       </c>
     </row>
     <row r="38">
@@ -4768,16 +4768,16 @@
         <v>100000</v>
       </c>
       <c r="F38" s="220">
-        <v>0</v>
+        <v>158218</v>
       </c>
       <c r="G38" s="221">
         <v>744465</v>
       </c>
       <c r="H38" s="222">
-        <v>1172.8680555555554</v>
+        <v>1392.6152777777777</v>
       </c>
       <c r="I38" s="223">
-        <v>844465</v>
+        <v>1002683</v>
       </c>
     </row>
     <row r="39">
@@ -4797,16 +4797,16 @@
         <v>100000</v>
       </c>
       <c r="F39" s="226">
-        <v>0</v>
+        <v>153768</v>
       </c>
       <c r="G39" s="227">
         <v>597279</v>
       </c>
       <c r="H39" s="228">
-        <v>1315.620754716981</v>
+        <v>1605.7490566037736</v>
       </c>
       <c r="I39" s="229">
-        <v>697279</v>
+        <v>851047</v>
       </c>
     </row>
     <row r="40">
@@ -4826,16 +4826,16 @@
         <v>100000</v>
       </c>
       <c r="F40" s="232">
-        <v>0</v>
+        <v>143322</v>
       </c>
       <c r="G40" s="233">
         <v>251780</v>
       </c>
       <c r="H40" s="234">
-        <v>4187.857142857143</v>
+        <v>5894.071428571428</v>
       </c>
       <c r="I40" s="235">
-        <v>351780</v>
+        <v>495102.00000000006</v>
       </c>
     </row>
     <row r="41">
@@ -4855,16 +4855,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="238">
-        <v>0</v>
+        <v>142994</v>
       </c>
       <c r="G41" s="239">
         <v>240934</v>
       </c>
       <c r="H41" s="240">
-        <v>3441.9142857142856</v>
+        <v>5484.685714285713</v>
       </c>
       <c r="I41" s="241">
-        <v>240934</v>
+        <v>383928.00000000006</v>
       </c>
     </row>
     <row r="42">
@@ -4884,16 +4884,16 @@
         <v>100000</v>
       </c>
       <c r="F42" s="244">
-        <v>0</v>
+        <v>154752</v>
       </c>
       <c r="G42" s="245">
         <v>629815</v>
       </c>
       <c r="H42" s="246">
-        <v>1275.9003496503494</v>
+        <v>1546.4458041958042</v>
       </c>
       <c r="I42" s="247">
-        <v>729815</v>
+        <v>884567</v>
       </c>
     </row>
     <row r="43">
@@ -4913,16 +4913,16 @@
         <v>100000</v>
       </c>
       <c r="F43" s="250">
-        <v>0</v>
+        <v>129529</v>
       </c>
       <c r="G43" s="251">
         <v>893011</v>
       </c>
       <c r="H43" s="252">
-        <v>479.0212252773758</v>
+        <v>541.5050651230101</v>
       </c>
       <c r="I43" s="253">
-        <v>993011</v>
+        <v>1122540</v>
       </c>
     </row>
     <row r="44">
@@ -4942,16 +4942,16 @@
         <v>100000</v>
       </c>
       <c r="F44" s="256">
-        <v>0</v>
+        <v>150512</v>
       </c>
       <c r="G44" s="257">
         <v>489601</v>
       </c>
       <c r="H44" s="258">
-        <v>1507.93094629156</v>
+        <v>1892.8721227621484</v>
       </c>
       <c r="I44" s="259">
-        <v>589601</v>
+        <v>740113</v>
       </c>
     </row>
     <row r="45">
@@ -4971,16 +4971,16 @@
         <v>20000</v>
       </c>
       <c r="F45" s="262">
-        <v>0</v>
+        <v>142099</v>
       </c>
       <c r="G45" s="263">
         <v>122263</v>
       </c>
       <c r="H45" s="264">
-        <v>2371.05</v>
+        <v>4739.366666666666</v>
       </c>
       <c r="I45" s="265">
-        <v>142263</v>
+        <v>284362</v>
       </c>
     </row>
     <row r="46">
@@ -5000,16 +5000,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="268">
-        <v>0</v>
+        <v>142073</v>
       </c>
       <c r="G46" s="269">
         <v>121048</v>
       </c>
       <c r="H46" s="270">
-        <v>2123.6491228070176</v>
+        <v>4616.157894736842</v>
       </c>
       <c r="I46" s="271">
-        <v>121048.00000000001</v>
+        <v>263121</v>
       </c>
     </row>
     <row r="47">
@@ -5029,16 +5029,16 @@
         <v>20000</v>
       </c>
       <c r="F47" s="274">
-        <v>0</v>
+        <v>173182</v>
       </c>
       <c r="G47" s="275">
         <v>1570882</v>
       </c>
       <c r="H47" s="276">
-        <v>437.4160021996151</v>
+        <v>485.032719274127</v>
       </c>
       <c r="I47" s="277">
-        <v>1590882</v>
+        <v>1764064</v>
       </c>
     </row>
     <row r="48">
@@ -5058,16 +5058,16 @@
         <v>20000</v>
       </c>
       <c r="F48" s="280">
-        <v>0</v>
+        <v>148165</v>
       </c>
       <c r="G48" s="281">
         <v>404940</v>
       </c>
       <c r="H48" s="282">
-        <v>560.6068601583113</v>
+        <v>756.075197889182</v>
       </c>
       <c r="I48" s="283">
-        <v>424940.00000000006</v>
+        <v>573105</v>
       </c>
     </row>
     <row r="49">
@@ -5087,16 +5087,16 @@
         <v>20000</v>
       </c>
       <c r="F49" s="286">
-        <v>0</v>
+        <v>151649</v>
       </c>
       <c r="G49" s="287">
         <v>567338</v>
       </c>
       <c r="H49" s="288">
-        <v>506.76272648835203</v>
+        <v>637.6074201898189</v>
       </c>
       <c r="I49" s="289">
-        <v>587338.0000000001</v>
+        <v>738987</v>
       </c>
     </row>
     <row r="50">
@@ -5116,16 +5116,16 @@
         <v>20000</v>
       </c>
       <c r="F50" s="292">
-        <v>0</v>
+        <v>145662</v>
       </c>
       <c r="G50" s="293">
         <v>288306</v>
       </c>
       <c r="H50" s="294">
-        <v>655.9702127659574</v>
+        <v>965.8893617021275</v>
       </c>
       <c r="I50" s="295">
-        <v>308306</v>
+        <v>453968.00000000006</v>
       </c>
     </row>
     <row r="51">
@@ -5145,16 +5145,16 @@
         <v>20000</v>
       </c>
       <c r="F51" s="298">
-        <v>0</v>
+        <v>142073</v>
       </c>
       <c r="G51" s="299">
         <v>121048</v>
       </c>
       <c r="H51" s="300">
-        <v>2474.5263157894738</v>
+        <v>4967.035087719298</v>
       </c>
       <c r="I51" s="301">
-        <v>141048</v>
+        <v>283121</v>
       </c>
     </row>
     <row r="52">
@@ -5174,16 +5174,16 @@
         <v>20000</v>
       </c>
       <c r="F52" s="304">
-        <v>0</v>
+        <v>142264</v>
       </c>
       <c r="G52" s="305">
         <v>129958</v>
       </c>
       <c r="H52" s="306">
-        <v>1898.2025316455697</v>
+        <v>3699.0126582278476</v>
       </c>
       <c r="I52" s="307">
-        <v>149958.00000000003</v>
+        <v>292222.00000000006</v>
       </c>
     </row>
     <row r="53">
@@ -5203,16 +5203,16 @@
         <v>20000</v>
       </c>
       <c r="F53" s="310">
-        <v>0</v>
+        <v>142056</v>
       </c>
       <c r="G53" s="311">
         <v>120238</v>
       </c>
       <c r="H53" s="312">
-        <v>2549.781818181818</v>
+        <v>5132.618181818182</v>
       </c>
       <c r="I53" s="313">
-        <v>140238.00000000003</v>
+        <v>282294</v>
       </c>
     </row>
     <row r="54">
@@ -5232,16 +5232,16 @@
         <v>20000</v>
       </c>
       <c r="F54" s="316">
-        <v>0</v>
+        <v>142056</v>
       </c>
       <c r="G54" s="317">
         <v>120238</v>
       </c>
       <c r="H54" s="318">
-        <v>2549.781818181818</v>
+        <v>5132.618181818182</v>
       </c>
       <c r="I54" s="319">
-        <v>140238.00000000003</v>
+        <v>282294</v>
       </c>
     </row>
     <row r="55">
@@ -5261,16 +5261,16 @@
         <v>20000</v>
       </c>
       <c r="F55" s="322">
-        <v>0</v>
+        <v>142056</v>
       </c>
       <c r="G55" s="323">
         <v>120238</v>
       </c>
       <c r="H55" s="324">
-        <v>2549.781818181818</v>
+        <v>5132.618181818182</v>
       </c>
       <c r="I55" s="325">
-        <v>140238.00000000003</v>
+        <v>282294</v>
       </c>
     </row>
     <row r="56">
@@ -5290,16 +5290,16 @@
         <v>20000</v>
       </c>
       <c r="F56" s="328">
-        <v>0</v>
+        <v>142056</v>
       </c>
       <c r="G56" s="329">
         <v>120238</v>
       </c>
       <c r="H56" s="330">
-        <v>2549.781818181818</v>
+        <v>5132.618181818182</v>
       </c>
       <c r="I56" s="331">
-        <v>140238.00000000003</v>
+        <v>282294</v>
       </c>
     </row>
     <row r="57">
@@ -5319,16 +5319,16 @@
         <v>0</v>
       </c>
       <c r="F57" s="334">
-        <v>0</v>
+        <v>143790</v>
       </c>
       <c r="G57" s="335">
         <v>267273</v>
       </c>
       <c r="H57" s="336">
-        <v>2569.932692307692</v>
+        <v>3952.5288461538457</v>
       </c>
       <c r="I57" s="337">
-        <v>267273</v>
+        <v>411063.00000000006</v>
       </c>
     </row>
     <row r="58">
@@ -5348,16 +5348,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="340">
-        <v>0</v>
+        <v>142203</v>
       </c>
       <c r="G58" s="341">
         <v>127123</v>
       </c>
       <c r="H58" s="342">
-        <v>1765.5972222222222</v>
+        <v>3740.6388888888887</v>
       </c>
       <c r="I58" s="343">
-        <v>127123.00000000001</v>
+        <v>269326.00000000006</v>
       </c>
     </row>
     <row r="59">
@@ -5377,16 +5377,16 @@
         <v>0</v>
       </c>
       <c r="F59" s="346">
-        <v>0</v>
+        <v>142203</v>
       </c>
       <c r="G59" s="347">
         <v>127123</v>
       </c>
       <c r="H59" s="348">
-        <v>1765.5972222222222</v>
+        <v>3740.6388888888887</v>
       </c>
       <c r="I59" s="349">
-        <v>127123.00000000001</v>
+        <v>269326.00000000006</v>
       </c>
     </row>
     <row r="60">
@@ -5406,16 +5406,16 @@
         <v>0</v>
       </c>
       <c r="F60" s="352">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="G60" s="353">
         <v>140892</v>
       </c>
       <c r="H60" s="354">
-        <v>1329.1698113207547</v>
+        <v>2673.5</v>
       </c>
       <c r="I60" s="355">
-        <v>140892</v>
+        <v>283391</v>
       </c>
     </row>
     <row r="61">
@@ -5435,16 +5435,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="358">
-        <v>0</v>
+        <v>143759</v>
       </c>
       <c r="G61" s="359">
         <v>199615</v>
       </c>
       <c r="H61" s="360">
-        <v>795.2788844621514</v>
+        <v>1368.02390438247</v>
       </c>
       <c r="I61" s="361">
-        <v>199615.00000000003</v>
+        <v>343374.00000000006</v>
       </c>
     </row>
     <row r="62">
@@ -5464,16 +5464,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="364">
-        <v>0</v>
+        <v>172974</v>
       </c>
       <c r="G62" s="365">
         <v>1561162</v>
       </c>
       <c r="H62" s="366">
-        <v>432.0957652920011</v>
+        <v>479.97121505673954</v>
       </c>
       <c r="I62" s="367">
-        <v>1561162</v>
+        <v>1734136</v>
       </c>
     </row>
     <row r="63">
@@ -5493,16 +5493,16 @@
         <v>0</v>
       </c>
       <c r="F63" s="370">
-        <v>0</v>
+        <v>163676</v>
       </c>
       <c r="G63" s="371">
         <v>1127832</v>
       </c>
       <c r="H63" s="372">
-        <v>443.5045222178529</v>
+        <v>507.86787259142744</v>
       </c>
       <c r="I63" s="373">
-        <v>1127832</v>
+        <v>1291508</v>
       </c>
     </row>
     <row r="64">
@@ -5522,16 +5522,16 @@
         <v>0</v>
       </c>
       <c r="F64" s="376">
-        <v>0</v>
+        <v>143307</v>
       </c>
       <c r="G64" s="377">
         <v>178556</v>
       </c>
       <c r="H64" s="378">
-        <v>897.2663316582914</v>
+        <v>1617.4020100502512</v>
       </c>
       <c r="I64" s="379">
-        <v>178556.00000000003</v>
+        <v>321863</v>
       </c>
     </row>
     <row r="65">
@@ -5551,16 +5551,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="382">
-        <v>0</v>
+        <v>52469</v>
       </c>
       <c r="G65" s="383">
         <v>16818</v>
       </c>
       <c r="H65" s="384">
-        <v>646.8461538461538</v>
+        <v>2664.884615384615</v>
       </c>
       <c r="I65" s="385">
-        <v>16818</v>
+        <v>69287</v>
       </c>
     </row>
     <row r="66">
@@ -5580,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="F66" s="388">
-        <v>0</v>
+        <v>55472</v>
       </c>
       <c r="G66" s="389">
         <v>24348</v>
       </c>
       <c r="H66" s="390">
-        <v>352.8695652173913</v>
+        <v>1156.8115942028983</v>
       </c>
       <c r="I66" s="391">
-        <v>24348</v>
+        <v>79820</v>
       </c>
     </row>
     <row r="67">
@@ -5609,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="394">
-        <v>0</v>
+        <v>55472</v>
       </c>
       <c r="G67" s="395">
         <v>24348</v>
       </c>
       <c r="H67" s="396">
-        <v>352.8695652173913</v>
+        <v>1156.8115942028983</v>
       </c>
       <c r="I67" s="397">
-        <v>24348</v>
+        <v>79820</v>
       </c>
     </row>
     <row r="68">
@@ -5638,16 +5638,16 @@
         <v>0</v>
       </c>
       <c r="F68" s="400">
-        <v>0</v>
+        <v>64831</v>
       </c>
       <c r="G68" s="401">
         <v>47815</v>
       </c>
       <c r="H68" s="402">
-        <v>235.54187192118226</v>
+        <v>554.9064039408867</v>
       </c>
       <c r="I68" s="403">
-        <v>47815</v>
+        <v>112646.00000000001</v>
       </c>
     </row>
     <row r="69">
@@ -5667,16 +5667,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="406">
-        <v>0</v>
+        <v>74399</v>
       </c>
       <c r="G69" s="407">
         <v>71808</v>
       </c>
       <c r="H69" s="408">
-        <v>211.2</v>
+        <v>430.0205882352941</v>
       </c>
       <c r="I69" s="409">
-        <v>71808</v>
+        <v>146207</v>
       </c>
     </row>
     <row r="70">
@@ -5696,16 +5696,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="412">
-        <v>0</v>
+        <v>67066</v>
       </c>
       <c r="G70" s="413">
         <v>53419</v>
       </c>
       <c r="H70" s="414">
-        <v>227.31489361702128</v>
+        <v>512.7021276595744</v>
       </c>
       <c r="I70" s="415">
-        <v>53419</v>
+        <v>120485.00000000001</v>
       </c>
     </row>
     <row r="71">
@@ -5725,16 +5725,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="418">
-        <v>0</v>
+        <v>52469</v>
       </c>
       <c r="G71" s="419">
         <v>16818</v>
       </c>
       <c r="H71" s="420">
-        <v>646.8461538461538</v>
+        <v>2664.884615384615</v>
       </c>
       <c r="I71" s="421">
-        <v>16818</v>
+        <v>69287</v>
       </c>
     </row>
     <row r="72">
@@ -5754,16 +5754,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="424">
-        <v>0</v>
+        <v>52120</v>
       </c>
       <c r="G72" s="425">
         <v>15942</v>
       </c>
       <c r="H72" s="426">
-        <v>759.1428571428571</v>
+        <v>3241.0476190476193</v>
       </c>
       <c r="I72" s="427">
-        <v>15942</v>
+        <v>68062</v>
       </c>
     </row>
     <row r="73">
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="430">
-        <v>0</v>
+        <v>64761</v>
       </c>
       <c r="G73" s="431">
         <v>47640</v>
       </c>
       <c r="H73" s="432">
-        <v>235.84158415841583</v>
+        <v>556.4405940594058</v>
       </c>
       <c r="I73" s="433">
-        <v>47640.00000000001</v>
+        <v>112401</v>
       </c>
     </row>
     <row r="74">
@@ -5812,16 +5812,16 @@
         <v>0</v>
       </c>
       <c r="F74" s="436">
-        <v>0</v>
+        <v>53866</v>
       </c>
       <c r="G74" s="437">
         <v>20320</v>
       </c>
       <c r="H74" s="438">
-        <v>441.7391304347826</v>
+        <v>1612.7391304347825</v>
       </c>
       <c r="I74" s="439">
-        <v>20320</v>
+        <v>74186</v>
       </c>
     </row>
     <row r="75">
@@ -5841,16 +5841,16 @@
         <v>0</v>
       </c>
       <c r="F75" s="442">
-        <v>0</v>
+        <v>51910</v>
       </c>
       <c r="G75" s="443">
         <v>15417</v>
       </c>
       <c r="H75" s="444">
-        <v>856.5</v>
+        <v>3740.3888888888887</v>
       </c>
       <c r="I75" s="445">
-        <v>15417</v>
+        <v>67327</v>
       </c>
     </row>
     <row r="76">
@@ -5870,16 +5870,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="448">
-        <v>0</v>
+        <v>52609</v>
       </c>
       <c r="G76" s="449">
         <v>17168</v>
       </c>
       <c r="H76" s="450">
-        <v>613.1428571428571</v>
+        <v>2492.035714285714</v>
       </c>
       <c r="I76" s="451">
-        <v>17168</v>
+        <v>69777</v>
       </c>
     </row>
     <row r="77">
@@ -5899,16 +5899,16 @@
         <v>0</v>
       </c>
       <c r="F77" s="454">
-        <v>0</v>
+        <v>57917</v>
       </c>
       <c r="G77" s="455">
         <v>30478</v>
       </c>
       <c r="H77" s="456">
-        <v>293.0576923076923</v>
+        <v>849.951923076923</v>
       </c>
       <c r="I77" s="457">
-        <v>30478</v>
+        <v>88395</v>
       </c>
     </row>
     <row r="78">
@@ -5928,16 +5928,16 @@
         <v>0</v>
       </c>
       <c r="F78" s="460">
-        <v>0</v>
+        <v>65529</v>
       </c>
       <c r="G78" s="461">
         <v>49566</v>
       </c>
       <c r="H78" s="462">
-        <v>232.70422535211267</v>
+        <v>540.3521126760563</v>
       </c>
       <c r="I78" s="463">
-        <v>49566</v>
+        <v>115095.00000000001</v>
       </c>
     </row>
     <row r="79">
@@ -5957,16 +5957,16 @@
         <v>0</v>
       </c>
       <c r="F79" s="466">
-        <v>0</v>
+        <v>54425</v>
       </c>
       <c r="G79" s="467">
         <v>21721</v>
       </c>
       <c r="H79" s="468">
-        <v>402.24074074074076</v>
+        <v>1410.1111111111109</v>
       </c>
       <c r="I79" s="469">
-        <v>21721.000000000004</v>
+        <v>76146</v>
       </c>
     </row>
     <row r="80">
@@ -5986,16 +5986,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="472">
-        <v>0</v>
+        <v>54355</v>
       </c>
       <c r="G80" s="473">
         <v>21546</v>
       </c>
       <c r="H80" s="474">
-        <v>406.52830188679246</v>
+        <v>1432.0943396226414</v>
       </c>
       <c r="I80" s="475">
-        <v>21546</v>
+        <v>75901</v>
       </c>
     </row>
     <row r="81">
@@ -6015,16 +6015,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="478">
-        <v>0</v>
+        <v>64621</v>
       </c>
       <c r="G81" s="479">
         <v>47290</v>
       </c>
       <c r="H81" s="480">
-        <v>236.45</v>
+        <v>559.555</v>
       </c>
       <c r="I81" s="481">
-        <v>47290</v>
+        <v>111911</v>
       </c>
     </row>
     <row r="82">
@@ -6044,16 +6044,16 @@
         <v>0</v>
       </c>
       <c r="F82" s="484">
-        <v>0</v>
+        <v>52190</v>
       </c>
       <c r="G82" s="485">
         <v>16117</v>
       </c>
       <c r="H82" s="486">
-        <v>732.590909090909</v>
+        <v>3104.863636363636</v>
       </c>
       <c r="I82" s="487">
-        <v>16117</v>
+        <v>68307</v>
       </c>
     </row>
     <row r="83">
@@ -6073,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="F83" s="490">
-        <v>0</v>
+        <v>53656</v>
       </c>
       <c r="G83" s="491">
         <v>19795</v>
       </c>
       <c r="H83" s="492">
-        <v>460.3488372093023</v>
+        <v>1708.1627906976742</v>
       </c>
       <c r="I83" s="493">
-        <v>19795</v>
+        <v>73451</v>
       </c>
     </row>
     <row r="84">
@@ -6102,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="F84" s="496">
-        <v>0</v>
+        <v>53377</v>
       </c>
       <c r="G84" s="497">
         <v>19094</v>
       </c>
       <c r="H84" s="498">
-        <v>489.58974358974353</v>
+        <v>1858.230769230769</v>
       </c>
       <c r="I84" s="499">
-        <v>19094</v>
+        <v>72471</v>
       </c>
     </row>
     <row r="85">
@@ -6131,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="F85" s="502">
-        <v>0</v>
+        <v>51771</v>
       </c>
       <c r="G85" s="503">
         <v>15066</v>
       </c>
       <c r="H85" s="504">
-        <v>941.625</v>
+        <v>4177.3125</v>
       </c>
       <c r="I85" s="505">
-        <v>15066</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="86">
@@ -6160,16 +6160,16 @@
         <v>0</v>
       </c>
       <c r="F86" s="508">
-        <v>0</v>
+        <v>53796</v>
       </c>
       <c r="G86" s="509">
         <v>20145</v>
       </c>
       <c r="H86" s="510">
-        <v>447.66666666666663</v>
+        <v>1643.133333333333</v>
       </c>
       <c r="I86" s="511">
-        <v>20145</v>
+        <v>73941</v>
       </c>
     </row>
     <row r="87">
@@ -6189,16 +6189,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="514">
-        <v>0</v>
+        <v>53237</v>
       </c>
       <c r="G87" s="515">
         <v>18744</v>
       </c>
       <c r="H87" s="516">
-        <v>506.5945945945946</v>
+        <v>1945.432432432432</v>
       </c>
       <c r="I87" s="517">
-        <v>18744</v>
+        <v>71981</v>
       </c>
     </row>
     <row r="88">
@@ -6218,16 +6218,16 @@
         <v>0</v>
       </c>
       <c r="F88" s="520">
-        <v>0</v>
+        <v>54075</v>
       </c>
       <c r="G88" s="521">
         <v>20846</v>
       </c>
       <c r="H88" s="522">
-        <v>425.4285714285714</v>
+        <v>1529</v>
       </c>
       <c r="I88" s="523">
-        <v>20846.000000000004</v>
+        <v>74921</v>
       </c>
     </row>
     <row r="89">
@@ -6247,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="526">
-        <v>0</v>
+        <v>53796</v>
       </c>
       <c r="G89" s="527">
         <v>20145</v>
       </c>
       <c r="H89" s="528">
-        <v>447.66666666666663</v>
+        <v>1643.133333333333</v>
       </c>
       <c r="I89" s="529">
-        <v>20145</v>
+        <v>73941</v>
       </c>
     </row>
     <row r="90">
@@ -6276,16 +6276,16 @@
         <v>0</v>
       </c>
       <c r="F90" s="532">
-        <v>0</v>
+        <v>52260</v>
       </c>
       <c r="G90" s="533">
         <v>16292</v>
       </c>
       <c r="H90" s="534">
-        <v>708.3478260869565</v>
+        <v>2980.521739130434</v>
       </c>
       <c r="I90" s="535">
-        <v>16292</v>
+        <v>68552</v>
       </c>
     </row>
     <row r="91">
@@ -6305,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="538">
-        <v>0</v>
+        <v>51212</v>
       </c>
       <c r="G91" s="539">
         <v>13665</v>
       </c>
       <c r="H91" s="540">
-        <v>1708.125</v>
+        <v>8109.625</v>
       </c>
       <c r="I91" s="541">
-        <v>13665</v>
+        <v>64877</v>
       </c>
     </row>
     <row r="92">
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="F92" s="544">
-        <v>0</v>
+        <v>53517</v>
       </c>
       <c r="G92" s="545">
         <v>19445</v>
       </c>
       <c r="H92" s="546">
-        <v>474.2682926829268</v>
+        <v>1779.560975609756</v>
       </c>
       <c r="I92" s="547">
-        <v>19445</v>
+        <v>72962</v>
       </c>
     </row>
     <row r="93">
@@ -6363,16 +6363,16 @@
         <v>0</v>
       </c>
       <c r="F93" s="550">
-        <v>0</v>
+        <v>55263</v>
       </c>
       <c r="G93" s="551">
         <v>23823</v>
       </c>
       <c r="H93" s="552">
-        <v>360.95454545454544</v>
+        <v>1198.272727272727</v>
       </c>
       <c r="I93" s="553">
-        <v>23823</v>
+        <v>79086</v>
       </c>
     </row>
     <row r="94">
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="F94" s="556">
-        <v>0</v>
+        <v>57567</v>
       </c>
       <c r="G94" s="557">
         <v>29602</v>
       </c>
       <c r="H94" s="558">
-        <v>299.010101010101</v>
+        <v>880.4949494949494</v>
       </c>
       <c r="I94" s="559">
-        <v>29602</v>
+        <v>87169</v>
       </c>
     </row>
     <row r="95">
@@ -6421,16 +6421,16 @@
         <v>0</v>
       </c>
       <c r="F95" s="562">
-        <v>0</v>
+        <v>52539</v>
       </c>
       <c r="G95" s="563">
         <v>16993</v>
       </c>
       <c r="H95" s="564">
-        <v>629.3703703703703</v>
+        <v>2575.259259259259</v>
       </c>
       <c r="I95" s="565">
-        <v>16993</v>
+        <v>69532</v>
       </c>
     </row>
     <row r="96">
@@ -6450,16 +6450,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="568">
-        <v>0</v>
+        <v>52190</v>
       </c>
       <c r="G96" s="569">
         <v>16117</v>
       </c>
       <c r="H96" s="570">
-        <v>732.590909090909</v>
+        <v>3104.863636363636</v>
       </c>
       <c r="I96" s="571">
-        <v>16117</v>
+        <v>68307</v>
       </c>
     </row>
     <row r="97">
@@ -6479,16 +6479,16 @@
         <v>0</v>
       </c>
       <c r="F97" s="574">
-        <v>0</v>
+        <v>63853</v>
       </c>
       <c r="G97" s="575">
         <v>45363</v>
       </c>
       <c r="H97" s="576">
-        <v>240.015873015873</v>
+        <v>577.8624338624338</v>
       </c>
       <c r="I97" s="577">
-        <v>45363</v>
+        <v>109216.00000000001</v>
       </c>
     </row>
     <row r="98">
@@ -6508,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="F98" s="580">
-        <v>0</v>
+        <v>53796</v>
       </c>
       <c r="G98" s="581">
         <v>20145</v>
       </c>
       <c r="H98" s="582">
-        <v>447.66666666666663</v>
+        <v>1643.133333333333</v>
       </c>
       <c r="I98" s="583">
-        <v>20145</v>
+        <v>73941</v>
       </c>
     </row>
     <row r="99">
@@ -6537,16 +6537,16 @@
         <v>0</v>
       </c>
       <c r="F99" s="586">
-        <v>0</v>
+        <v>60221</v>
       </c>
       <c r="G99" s="587">
         <v>36257</v>
       </c>
       <c r="H99" s="588">
-        <v>264.64963503649636</v>
+        <v>704.2189781021897</v>
       </c>
       <c r="I99" s="589">
-        <v>36257</v>
+        <v>96478.00000000001</v>
       </c>
     </row>
     <row r="100">
@@ -6566,16 +6566,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="592">
-        <v>0</v>
+        <v>52050</v>
       </c>
       <c r="G100" s="593">
         <v>15767</v>
       </c>
       <c r="H100" s="594">
-        <v>788.35</v>
+        <v>3390.85</v>
       </c>
       <c r="I100" s="595">
-        <v>15767</v>
+        <v>67817</v>
       </c>
     </row>
     <row r="101">
@@ -6595,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="F101" s="598">
-        <v>0</v>
+        <v>55472</v>
       </c>
       <c r="G101" s="599">
         <v>24348</v>
       </c>
       <c r="H101" s="600">
-        <v>352.8695652173913</v>
+        <v>1156.8115942028983</v>
       </c>
       <c r="I101" s="601">
-        <v>24348</v>
+        <v>79820</v>
       </c>
     </row>
     <row r="102">
@@ -6624,16 +6624,16 @@
         <v>0</v>
       </c>
       <c r="F102" s="604">
-        <v>0</v>
+        <v>62386</v>
       </c>
       <c r="G102" s="605">
         <v>41686</v>
       </c>
       <c r="H102" s="606">
-        <v>248.13095238095238</v>
+        <v>619.4761904761905</v>
       </c>
       <c r="I102" s="607">
-        <v>41686</v>
+        <v>104072</v>
       </c>
     </row>
     <row r="103">
@@ -6653,16 +6653,16 @@
         <v>0</v>
       </c>
       <c r="F103" s="610">
-        <v>0</v>
+        <v>65390</v>
       </c>
       <c r="G103" s="611">
         <v>49216</v>
       </c>
       <c r="H103" s="612">
-        <v>233.25118483412322</v>
+        <v>543.1563981042653</v>
       </c>
       <c r="I103" s="613">
-        <v>49216.00000000001</v>
+        <v>114606.00000000001</v>
       </c>
     </row>
     <row r="104">
@@ -6682,16 +6682,16 @@
         <v>0</v>
       </c>
       <c r="F104" s="616">
-        <v>0</v>
+        <v>45966</v>
       </c>
       <c r="G104" s="617">
         <v>134106</v>
       </c>
       <c r="H104" s="618">
-        <v>41.162062615101284</v>
+        <v>55.270718232044196</v>
       </c>
       <c r="I104" s="619">
-        <v>134106.00000000003</v>
+        <v>180072.00000000003</v>
       </c>
     </row>
     <row r="105">
@@ -6711,16 +6711,16 @@
         <v>0</v>
       </c>
       <c r="F105" s="622">
-        <v>0</v>
+        <v>28809</v>
       </c>
       <c r="G105" s="623">
         <v>39270</v>
       </c>
       <c r="H105" s="624">
-        <v>52.42990654205608</v>
+        <v>90.89319092122831</v>
       </c>
       <c r="I105" s="625">
-        <v>39270</v>
+        <v>68079</v>
       </c>
     </row>
     <row r="106">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="F106" s="628">
-        <v>0</v>
+        <v>26245</v>
       </c>
       <c r="G106" s="629">
         <v>25096</v>
       </c>
       <c r="H106" s="630">
-        <v>67.10160427807486</v>
+        <v>137.27540106951872</v>
       </c>
       <c r="I106" s="631">
-        <v>25096</v>
+        <v>51341.00000000001</v>
       </c>
     </row>
     <row r="107">
@@ -6769,16 +6769,16 @@
         <v>0</v>
       </c>
       <c r="F107" s="634">
-        <v>0</v>
+        <v>27476</v>
       </c>
       <c r="G107" s="635">
         <v>31899</v>
       </c>
       <c r="H107" s="636">
-        <v>57.57942238267148</v>
+        <v>107.17509025270758</v>
       </c>
       <c r="I107" s="637">
-        <v>31899</v>
+        <v>59375</v>
       </c>
     </row>
     <row r="108">
@@ -6798,16 +6798,16 @@
         <v>0</v>
       </c>
       <c r="F108" s="640">
-        <v>0</v>
+        <v>24426</v>
       </c>
       <c r="G108" s="641">
         <v>15041</v>
       </c>
       <c r="H108" s="642">
-        <v>139.2685185185185</v>
+        <v>365.43518518518516</v>
       </c>
       <c r="I108" s="643">
-        <v>15041</v>
+        <v>39467</v>
       </c>
     </row>
     <row r="109">
@@ -6827,16 +6827,16 @@
         <v>0</v>
       </c>
       <c r="F109" s="646">
-        <v>0</v>
+        <v>24043</v>
       </c>
       <c r="G109" s="647">
         <v>16255</v>
       </c>
       <c r="H109" s="648">
-        <v>312.5961538461538</v>
+        <v>774.9615384615385</v>
       </c>
       <c r="I109" s="649">
-        <v>16255</v>
+        <v>40298</v>
       </c>
     </row>
     <row r="110">
@@ -6856,16 +6856,16 @@
         <v>0</v>
       </c>
       <c r="F110" s="652">
-        <v>0</v>
+        <v>65126</v>
       </c>
       <c r="G110" s="653">
         <v>57691</v>
       </c>
       <c r="H110" s="654">
-        <v>100.68237347294938</v>
+        <v>214.34031413612564</v>
       </c>
       <c r="I110" s="655">
-        <v>57691</v>
+        <v>122817</v>
       </c>
     </row>
     <row r="111">
@@ -6885,16 +6885,16 @@
         <v>0</v>
       </c>
       <c r="F111" s="658">
-        <v>0</v>
+        <v>57719</v>
       </c>
       <c r="G111" s="659">
         <v>24750</v>
       </c>
       <c r="H111" s="660">
-        <v>179.3478260869565</v>
+        <v>597.6014492753623</v>
       </c>
       <c r="I111" s="661">
-        <v>24750</v>
+        <v>82469.00000000001</v>
       </c>
     </row>
     <row r="112">
@@ -6914,16 +6914,16 @@
         <v>0</v>
       </c>
       <c r="F112" s="664">
-        <v>0</v>
+        <v>58315</v>
       </c>
       <c r="G112" s="665">
         <v>27400</v>
       </c>
       <c r="H112" s="666">
-        <v>158.3815028901734</v>
+        <v>495.4624277456647</v>
       </c>
       <c r="I112" s="667">
-        <v>27400</v>
+        <v>85715</v>
       </c>
     </row>
     <row r="113">
@@ -6943,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="F113" s="670">
-        <v>0</v>
+        <v>56681</v>
       </c>
       <c r="G113" s="671">
         <v>22912</v>
       </c>
       <c r="H113" s="672">
-        <v>79.00689655172414</v>
+        <v>274.45862068965516</v>
       </c>
       <c r="I113" s="673">
-        <v>22912</v>
+        <v>79593.00000000001</v>
       </c>
     </row>
     <row r="114">
@@ -6972,16 +6972,16 @@
         <v>0</v>
       </c>
       <c r="F114" s="676">
-        <v>0</v>
+        <v>56062</v>
       </c>
       <c r="G114" s="677">
         <v>17734</v>
       </c>
       <c r="H114" s="678">
-        <v>115.90849673202614</v>
+        <v>482.3267973856209</v>
       </c>
       <c r="I114" s="679">
-        <v>17734</v>
+        <v>73796</v>
       </c>
     </row>
     <row r="115">
@@ -7001,16 +7001,16 @@
         <v>0</v>
       </c>
       <c r="F115" s="682">
-        <v>0</v>
+        <v>63790</v>
       </c>
       <c r="G115" s="683">
         <v>82293</v>
       </c>
       <c r="H115" s="684">
-        <v>44.21977431488447</v>
+        <v>78.4970445996776</v>
       </c>
       <c r="I115" s="685">
-        <v>82293</v>
+        <v>146083.00000000003</v>
       </c>
     </row>
     <row r="116">
@@ -7030,16 +7030,16 @@
         <v>0</v>
       </c>
       <c r="F116" s="688">
-        <v>0</v>
+        <v>194358</v>
       </c>
       <c r="G116" s="689">
         <v>1172962</v>
       </c>
       <c r="H116" s="690">
-        <v>38.1873290793072</v>
+        <v>44.51491079567652</v>
       </c>
       <c r="I116" s="691">
-        <v>1172962</v>
+        <v>1367320</v>
       </c>
     </row>
     <row r="117">
@@ -7059,16 +7059,16 @@
         <v>0</v>
       </c>
       <c r="F117" s="694">
-        <v>0</v>
+        <v>56627</v>
       </c>
       <c r="G117" s="695">
         <v>22459</v>
       </c>
       <c r="H117" s="696">
-        <v>80.78776978417265</v>
+        <v>284.4820143884892</v>
       </c>
       <c r="I117" s="697">
-        <v>22459</v>
+        <v>79086</v>
       </c>
     </row>
     <row r="118">
@@ -7088,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="F118" s="700">
-        <v>0</v>
+        <v>57324</v>
       </c>
       <c r="G118" s="701">
         <v>28279</v>
       </c>
       <c r="H118" s="702">
-        <v>65.46064814814814</v>
+        <v>198.1550925925926</v>
       </c>
       <c r="I118" s="703">
-        <v>28279</v>
+        <v>85603.00000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7117,16 +7117,16 @@
         <v>0</v>
       </c>
       <c r="F119" s="706">
-        <v>0</v>
+        <v>56093</v>
       </c>
       <c r="G119" s="707">
         <v>17998</v>
       </c>
       <c r="H119" s="708">
-        <v>112.4875</v>
+        <v>463.06875</v>
       </c>
       <c r="I119" s="709">
-        <v>17998</v>
+        <v>74091</v>
       </c>
     </row>
     <row r="120">
@@ -7146,16 +7146,16 @@
         <v>0</v>
       </c>
       <c r="F120" s="712">
-        <v>0</v>
+        <v>56062</v>
       </c>
       <c r="G120" s="713">
         <v>17734</v>
       </c>
       <c r="H120" s="714">
-        <v>115.90849673202614</v>
+        <v>482.3267973856209</v>
       </c>
       <c r="I120" s="715">
-        <v>17734</v>
+        <v>73796</v>
       </c>
     </row>
     <row r="121">
@@ -7175,16 +7175,16 @@
         <v>0</v>
       </c>
       <c r="F121" s="718">
-        <v>0</v>
+        <v>56514</v>
       </c>
       <c r="G121" s="719">
         <v>21514</v>
       </c>
       <c r="H121" s="720">
-        <v>85.03557312252964</v>
+        <v>308.4110671936759</v>
       </c>
       <c r="I121" s="721">
-        <v>21514.000000000004</v>
+        <v>78028</v>
       </c>
     </row>
     <row r="122">
@@ -7204,16 +7204,16 @@
         <v>0</v>
       </c>
       <c r="F122" s="724">
-        <v>0</v>
+        <v>61143</v>
       </c>
       <c r="G122" s="725">
         <v>60181</v>
       </c>
       <c r="H122" s="726">
-        <v>47.16379310344827</v>
+        <v>95.08150470219435</v>
       </c>
       <c r="I122" s="727">
-        <v>60181</v>
+        <v>121324</v>
       </c>
     </row>
     <row r="123">
@@ -7233,16 +7233,16 @@
         <v>0</v>
       </c>
       <c r="F123" s="730">
-        <v>0</v>
+        <v>56523</v>
       </c>
       <c r="G123" s="731">
         <v>21589</v>
       </c>
       <c r="H123" s="732">
-        <v>84.6627450980392</v>
+        <v>306.321568627451</v>
       </c>
       <c r="I123" s="733">
-        <v>21589</v>
+        <v>78112</v>
       </c>
     </row>
     <row r="124">
@@ -7262,16 +7262,16 @@
         <v>0</v>
       </c>
       <c r="F124" s="736">
-        <v>0</v>
+        <v>56129</v>
       </c>
       <c r="G124" s="737">
         <v>18301</v>
       </c>
       <c r="H124" s="738">
-        <v>108.9345238095238</v>
+        <v>443.0357142857142</v>
       </c>
       <c r="I124" s="739">
-        <v>18301</v>
+        <v>74430</v>
       </c>
     </row>
     <row r="125">
@@ -7291,16 +7291,16 @@
         <v>0</v>
       </c>
       <c r="F125" s="742">
-        <v>0</v>
+        <v>56718</v>
       </c>
       <c r="G125" s="743">
         <v>23215</v>
       </c>
       <c r="H125" s="744">
-        <v>77.90268456375838</v>
+        <v>268.231543624161</v>
       </c>
       <c r="I125" s="745">
-        <v>23215</v>
+        <v>79933</v>
       </c>
     </row>
     <row r="126">
@@ -7320,16 +7320,16 @@
         <v>0</v>
       </c>
       <c r="F126" s="748">
-        <v>0</v>
+        <v>55650</v>
       </c>
       <c r="G126" s="749">
         <v>14294</v>
       </c>
       <c r="H126" s="750">
-        <v>230.5483870967742</v>
+        <v>1128.1290322580644</v>
       </c>
       <c r="I126" s="751">
-        <v>14294</v>
+        <v>69944</v>
       </c>
     </row>
     <row r="127">
@@ -7349,16 +7349,16 @@
         <v>0</v>
       </c>
       <c r="F127" s="754">
-        <v>0</v>
+        <v>63912</v>
       </c>
       <c r="G127" s="755">
         <v>83314</v>
       </c>
       <c r="H127" s="756">
-        <v>44.12817796610169</v>
+        <v>77.97987288135593</v>
       </c>
       <c r="I127" s="757">
-        <v>83314</v>
+        <v>147226.00000000003</v>
       </c>
     </row>
     <row r="128">
@@ -7378,16 +7378,16 @@
         <v>0</v>
       </c>
       <c r="F128" s="760">
-        <v>0</v>
+        <v>55690</v>
       </c>
       <c r="G128" s="761">
         <v>14634</v>
       </c>
       <c r="H128" s="762">
-        <v>206.11267605633802</v>
+        <v>990.4788732394366</v>
       </c>
       <c r="I128" s="763">
-        <v>14634</v>
+        <v>70324</v>
       </c>
     </row>
     <row r="129">
@@ -7407,16 +7407,16 @@
         <v>0</v>
       </c>
       <c r="F129" s="766">
-        <v>0</v>
+        <v>75555</v>
       </c>
       <c r="G129" s="767">
         <v>180569</v>
       </c>
       <c r="H129" s="768">
-        <v>40.47724725397893</v>
+        <v>57.414032728087875</v>
       </c>
       <c r="I129" s="769">
-        <v>180569.00000000003</v>
+        <v>256124.00000000003</v>
       </c>
     </row>
     <row r="130">
@@ -7436,16 +7436,16 @@
         <v>0</v>
       </c>
       <c r="F130" s="772">
-        <v>0</v>
+        <v>59365</v>
       </c>
       <c r="G130" s="773">
         <v>45327</v>
       </c>
       <c r="H130" s="774">
-        <v>51.33295583238958</v>
+        <v>118.563986409966</v>
       </c>
       <c r="I130" s="775">
-        <v>45327</v>
+        <v>104692</v>
       </c>
     </row>
     <row r="131">
@@ -7465,16 +7465,16 @@
         <v>0</v>
       </c>
       <c r="F131" s="778">
-        <v>0</v>
+        <v>56795</v>
       </c>
       <c r="G131" s="779">
         <v>23857</v>
       </c>
       <c r="H131" s="780">
-        <v>75.73650793650793</v>
+        <v>256.03809523809525</v>
       </c>
       <c r="I131" s="781">
-        <v>23857</v>
+        <v>80652.00000000001</v>
       </c>
     </row>
     <row r="132">
@@ -7494,16 +7494,16 @@
         <v>0</v>
       </c>
       <c r="F132" s="784">
-        <v>0</v>
+        <v>55650</v>
       </c>
       <c r="G132" s="785">
         <v>14294</v>
       </c>
       <c r="H132" s="786">
-        <v>230.5483870967742</v>
+        <v>1128.1290322580644</v>
       </c>
       <c r="I132" s="787">
-        <v>14294</v>
+        <v>69944</v>
       </c>
     </row>
     <row r="133">
@@ -7523,16 +7523,16 @@
         <v>0</v>
       </c>
       <c r="F133" s="790">
-        <v>0</v>
+        <v>84555</v>
       </c>
       <c r="G133" s="791">
         <v>255749</v>
       </c>
       <c r="H133" s="792">
-        <v>39.65100775193798</v>
+        <v>52.76031007751938</v>
       </c>
       <c r="I133" s="793">
-        <v>255749.00000000003</v>
+        <v>340304</v>
       </c>
     </row>
     <row r="134">
@@ -7552,16 +7552,16 @@
         <v>0</v>
       </c>
       <c r="F134" s="796">
-        <v>0</v>
+        <v>63573</v>
       </c>
       <c r="G134" s="797">
         <v>80479</v>
       </c>
       <c r="H134" s="798">
-        <v>44.38996138996139</v>
+        <v>79.45504688361831</v>
       </c>
       <c r="I134" s="799">
-        <v>80479</v>
+        <v>144052</v>
       </c>
     </row>
     <row r="135">
@@ -7581,16 +7581,16 @@
         <v>0</v>
       </c>
       <c r="F135" s="802">
-        <v>0</v>
+        <v>56500</v>
       </c>
       <c r="G135" s="803">
         <v>21400</v>
       </c>
       <c r="H135" s="804">
-        <v>85.6</v>
+        <v>311.6</v>
       </c>
       <c r="I135" s="805">
-        <v>21400</v>
+        <v>77900</v>
       </c>
     </row>
     <row r="136">
@@ -7610,16 +7610,16 @@
         <v>0</v>
       </c>
       <c r="F136" s="808">
-        <v>0</v>
+        <v>65745</v>
       </c>
       <c r="G136" s="809">
         <v>98622</v>
       </c>
       <c r="H136" s="810">
-        <v>43.010030527692976</v>
+        <v>71.68207588312255</v>
       </c>
       <c r="I136" s="811">
-        <v>98622.00000000001</v>
+        <v>164367.00000000003</v>
       </c>
     </row>
     <row r="137">
@@ -7639,16 +7639,16 @@
         <v>0</v>
       </c>
       <c r="F137" s="814">
-        <v>0</v>
+        <v>57718</v>
       </c>
       <c r="G137" s="815">
         <v>31568</v>
       </c>
       <c r="H137" s="816">
-        <v>60.82466281310212</v>
+        <v>172.03468208092485</v>
       </c>
       <c r="I137" s="817">
-        <v>31568.000000000004</v>
+        <v>89286</v>
       </c>
     </row>
     <row r="138">
@@ -7668,16 +7668,16 @@
         <v>0</v>
       </c>
       <c r="F138" s="820">
-        <v>0</v>
+        <v>59039</v>
       </c>
       <c r="G138" s="821">
         <v>42605</v>
       </c>
       <c r="H138" s="822">
-        <v>52.533908754623916</v>
+        <v>125.33168927250307</v>
       </c>
       <c r="I138" s="823">
-        <v>42605</v>
+        <v>101644.00000000001</v>
       </c>
     </row>
     <row r="139">
@@ -7697,16 +7697,16 @@
         <v>0</v>
       </c>
       <c r="F139" s="826">
-        <v>0</v>
+        <v>56487</v>
       </c>
       <c r="G139" s="827">
         <v>21287</v>
       </c>
       <c r="H139" s="828">
-        <v>86.1821862348178</v>
+        <v>314.8744939271255</v>
       </c>
       <c r="I139" s="829">
-        <v>21287</v>
+        <v>77774</v>
       </c>
     </row>
     <row r="140">
@@ -7726,16 +7726,16 @@
         <v>0</v>
       </c>
       <c r="F140" s="832">
-        <v>0</v>
+        <v>59451</v>
       </c>
       <c r="G140" s="833">
         <v>46045</v>
       </c>
       <c r="H140" s="834">
-        <v>51.04767184035477</v>
+        <v>116.95787139689577</v>
       </c>
       <c r="I140" s="835">
-        <v>46045</v>
+        <v>105496.00000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7755,16 +7755,16 @@
         <v>0</v>
       </c>
       <c r="F141" s="838">
-        <v>0</v>
+        <v>57568</v>
       </c>
       <c r="G141" s="839">
         <v>30321</v>
       </c>
       <c r="H141" s="840">
-        <v>62.38888888888889</v>
+        <v>180.84156378600824</v>
       </c>
       <c r="I141" s="841">
-        <v>30321</v>
+        <v>87889.00000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7784,16 +7784,16 @@
         <v>0</v>
       </c>
       <c r="F142" s="844">
-        <v>0</v>
+        <v>42650</v>
       </c>
       <c r="G142" s="845">
         <v>63344</v>
       </c>
       <c r="H142" s="846">
-        <v>36.279495990836196</v>
+        <v>60.70675830469644</v>
       </c>
       <c r="I142" s="847">
-        <v>63344</v>
+        <v>105994.00000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7813,16 +7813,16 @@
         <v>0</v>
       </c>
       <c r="F143" s="850">
-        <v>0</v>
+        <v>26540</v>
       </c>
       <c r="G143" s="851">
         <v>19150</v>
       </c>
       <c r="H143" s="852">
-        <v>70.14652014652015</v>
+        <v>167.36263736263734</v>
       </c>
       <c r="I143" s="853">
-        <v>19150</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="144">
@@ -7842,16 +7842,16 @@
         <v>0</v>
       </c>
       <c r="F144" s="856">
-        <v>0</v>
+        <v>25151</v>
       </c>
       <c r="G144" s="857">
         <v>15339</v>
       </c>
       <c r="H144" s="858">
-        <v>105.06164383561644</v>
+        <v>277.32876712328766</v>
       </c>
       <c r="I144" s="859">
-        <v>15339</v>
+        <v>40490</v>
       </c>
     </row>
     <row r="145">
@@ -7871,16 +7871,16 @@
         <v>0</v>
       </c>
       <c r="F145" s="862">
-        <v>0</v>
+        <v>24583</v>
       </c>
       <c r="G145" s="863">
         <v>13779</v>
       </c>
       <c r="H145" s="864">
-        <v>146.58510638297872</v>
+        <v>408.1063829787234</v>
       </c>
       <c r="I145" s="865">
-        <v>13779</v>
+        <v>38362</v>
       </c>
     </row>
     <row r="146">
@@ -7900,16 +7900,16 @@
         <v>0</v>
       </c>
       <c r="F146" s="868">
-        <v>0</v>
+        <v>25589</v>
       </c>
       <c r="G146" s="869">
         <v>16540</v>
       </c>
       <c r="H146" s="870">
-        <v>88.9247311827957</v>
+        <v>226.5</v>
       </c>
       <c r="I146" s="871">
-        <v>16540</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="147">
@@ -7929,16 +7929,16 @@
         <v>0</v>
       </c>
       <c r="F147" s="874">
-        <v>0</v>
+        <v>24856</v>
       </c>
       <c r="G147" s="875">
         <v>14529</v>
       </c>
       <c r="H147" s="876">
-        <v>122.09243697478992</v>
+        <v>330.9663865546218</v>
       </c>
       <c r="I147" s="877">
-        <v>14529</v>
+        <v>39385</v>
       </c>
     </row>
   </sheetData>
